--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H2">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I2">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J2">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.435593666666667</v>
+        <v>6.956267333333333</v>
       </c>
       <c r="N2">
-        <v>13.306781</v>
+        <v>20.868802</v>
       </c>
       <c r="O2">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="P2">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="Q2">
-        <v>45.58630677295745</v>
+        <v>46.28730659300688</v>
       </c>
       <c r="R2">
-        <v>410.2767609566171</v>
+        <v>416.585759337062</v>
       </c>
       <c r="S2">
-        <v>0.09732571329942435</v>
+        <v>0.1184950461471488</v>
       </c>
       <c r="T2">
-        <v>0.09732571329942434</v>
+        <v>0.1184950461471488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H3">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I3">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J3">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.924788</v>
       </c>
       <c r="O3">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="P3">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="Q3">
-        <v>61.40665308974622</v>
+        <v>39.75744068924755</v>
       </c>
       <c r="R3">
-        <v>552.659877807716</v>
+        <v>357.816966203228</v>
       </c>
       <c r="S3">
-        <v>0.1311017877156738</v>
+        <v>0.1017786541478451</v>
       </c>
       <c r="T3">
-        <v>0.1311017877156738</v>
+        <v>0.1017786541478451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H4">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I4">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J4">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.466151666666667</v>
+        <v>3.345755333333333</v>
       </c>
       <c r="N4">
-        <v>7.398455</v>
+        <v>10.037266</v>
       </c>
       <c r="O4">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="P4">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="Q4">
-        <v>25.34559179082611</v>
+        <v>22.26280208598289</v>
       </c>
       <c r="R4">
-        <v>228.110326117435</v>
+        <v>200.365218773846</v>
       </c>
       <c r="S4">
-        <v>0.05411225375909415</v>
+        <v>0.05699255270432905</v>
       </c>
       <c r="T4">
-        <v>0.05411225375909415</v>
+        <v>0.05699255270432905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H5">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I5">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J5">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.398978</v>
+        <v>1.874232</v>
       </c>
       <c r="N5">
-        <v>10.196934</v>
+        <v>5.622696</v>
       </c>
       <c r="O5">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="P5">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="Q5">
-        <v>34.93260777851533</v>
+        <v>12.471221569464</v>
       </c>
       <c r="R5">
-        <v>314.393470006638</v>
+        <v>112.240994125176</v>
       </c>
       <c r="S5">
-        <v>0.07458031172356053</v>
+        <v>0.03192620362162567</v>
       </c>
       <c r="T5">
-        <v>0.07458031172356051</v>
+        <v>0.03192620362162566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.435593666666667</v>
+        <v>6.956267333333333</v>
       </c>
       <c r="N6">
-        <v>13.306781</v>
+        <v>20.868802</v>
       </c>
       <c r="O6">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="P6">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="Q6">
-        <v>8.814113071093111</v>
+        <v>13.82302605613289</v>
       </c>
       <c r="R6">
-        <v>79.327017639838</v>
+        <v>124.407234505196</v>
       </c>
       <c r="S6">
-        <v>0.01881792806814527</v>
+        <v>0.03538680971042222</v>
       </c>
       <c r="T6">
-        <v>0.01881792806814527</v>
+        <v>0.03538680971042222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.924788</v>
       </c>
       <c r="O7">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="P7">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="Q7">
         <v>11.87297725929155</v>
@@ -883,10 +883,10 @@
         <v>106.856795333624</v>
       </c>
       <c r="S7">
-        <v>0.02534853254297591</v>
+        <v>0.03039470411649215</v>
       </c>
       <c r="T7">
-        <v>0.02534853254297591</v>
+        <v>0.03039470411649215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.466151666666667</v>
+        <v>3.345755333333333</v>
       </c>
       <c r="N8">
-        <v>7.398455</v>
+        <v>10.037266</v>
       </c>
       <c r="O8">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="P8">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="Q8">
-        <v>4.900570537787778</v>
+        <v>6.648459717540889</v>
       </c>
       <c r="R8">
-        <v>44.10513484009</v>
+        <v>59.83613745786801</v>
       </c>
       <c r="S8">
-        <v>0.01046260504365479</v>
+        <v>0.01701999098725892</v>
       </c>
       <c r="T8">
-        <v>0.01046260504365479</v>
+        <v>0.01701999098725892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.398978</v>
+        <v>1.874232</v>
       </c>
       <c r="N9">
-        <v>10.196934</v>
+        <v>5.622696</v>
       </c>
       <c r="O9">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="P9">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="Q9">
-        <v>6.754220217081333</v>
+        <v>3.724347632112</v>
       </c>
       <c r="R9">
-        <v>60.787981953732</v>
+        <v>33.519128689008</v>
       </c>
       <c r="S9">
-        <v>0.01442010434586883</v>
+        <v>0.009534293028011488</v>
       </c>
       <c r="T9">
-        <v>0.01442010434586883</v>
+        <v>0.009534293028011486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H10">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.435593666666667</v>
+        <v>6.956267333333333</v>
       </c>
       <c r="N10">
-        <v>13.306781</v>
+        <v>20.868802</v>
       </c>
       <c r="O10">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="P10">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="Q10">
-        <v>3.566473093901445</v>
+        <v>6.673228409318889</v>
       </c>
       <c r="R10">
-        <v>32.098257845113</v>
+        <v>60.05905568386999</v>
       </c>
       <c r="S10">
-        <v>0.007614337778138983</v>
+        <v>0.01708339859274015</v>
       </c>
       <c r="T10">
-        <v>0.007614337778138983</v>
+        <v>0.01708339859274016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H11">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.924788</v>
       </c>
       <c r="O11">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="P11">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="Q11">
-        <v>4.804187738258221</v>
+        <v>5.731819416975555</v>
       </c>
       <c r="R11">
-        <v>43.237689644324</v>
+        <v>51.58637475278</v>
       </c>
       <c r="S11">
-        <v>0.01025682999017811</v>
+        <v>0.01467340090218718</v>
       </c>
       <c r="T11">
-        <v>0.01025682999017812</v>
+        <v>0.01467340090218718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H12">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.466151666666667</v>
+        <v>3.345755333333333</v>
       </c>
       <c r="N12">
-        <v>7.398455</v>
+        <v>10.037266</v>
       </c>
       <c r="O12">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="P12">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="Q12">
-        <v>1.982928154746111</v>
+        <v>3.209622125078889</v>
       </c>
       <c r="R12">
-        <v>17.846353392715</v>
+        <v>28.88659912571</v>
       </c>
       <c r="S12">
-        <v>0.004233505864894091</v>
+        <v>0.008216600831200497</v>
       </c>
       <c r="T12">
-        <v>0.004233505864894091</v>
+        <v>0.008216600831200498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H13">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.398978</v>
+        <v>1.874232</v>
       </c>
       <c r="N13">
-        <v>10.196934</v>
+        <v>5.622696</v>
       </c>
       <c r="O13">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="P13">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="Q13">
-        <v>2.732974319731333</v>
+        <v>1.79797262364</v>
       </c>
       <c r="R13">
-        <v>24.596768877582</v>
+        <v>16.18175361276</v>
       </c>
       <c r="S13">
-        <v>0.00583483712382355</v>
+        <v>0.00460279209768753</v>
       </c>
       <c r="T13">
-        <v>0.00583483712382355</v>
+        <v>0.00460279209768753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H14">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.435593666666667</v>
+        <v>6.956267333333333</v>
       </c>
       <c r="N14">
-        <v>13.306781</v>
+        <v>20.868802</v>
       </c>
       <c r="O14">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="P14">
-        <v>0.2725293883759869</v>
+        <v>0.383240417447883</v>
       </c>
       <c r="Q14">
-        <v>69.68291184624455</v>
+        <v>82.92030655481999</v>
       </c>
       <c r="R14">
-        <v>627.1462066162011</v>
+        <v>746.2827589933798</v>
       </c>
       <c r="S14">
-        <v>0.1487714092302783</v>
+        <v>0.2122751629975718</v>
       </c>
       <c r="T14">
-        <v>0.1487714092302783</v>
+        <v>0.2122751629975718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H15">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.924788</v>
       </c>
       <c r="O15">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="P15">
-        <v>0.3671084321902667</v>
+        <v>0.3291757349456286</v>
       </c>
       <c r="Q15">
-        <v>93.86578332254977</v>
+        <v>71.22253188707998</v>
       </c>
       <c r="R15">
-        <v>844.792049902948</v>
+        <v>641.0027869837199</v>
       </c>
       <c r="S15">
-        <v>0.2004012819414388</v>
+        <v>0.1823289757791041</v>
       </c>
       <c r="T15">
-        <v>0.2004012819414388</v>
+        <v>0.1823289757791041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H16">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.466151666666667</v>
+        <v>3.345755333333333</v>
       </c>
       <c r="N16">
-        <v>7.398455</v>
+        <v>10.037266</v>
       </c>
       <c r="O16">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="P16">
-        <v>0.1515239798473622</v>
+        <v>0.1843271123984713</v>
       </c>
       <c r="Q16">
-        <v>38.74309553628389</v>
+        <v>39.88217309706</v>
       </c>
       <c r="R16">
-        <v>348.687859826555</v>
+        <v>358.93955787354</v>
       </c>
       <c r="S16">
-        <v>0.08271561517971916</v>
+        <v>0.1020979678756828</v>
       </c>
       <c r="T16">
-        <v>0.08271561517971916</v>
+        <v>0.1020979678756829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H17">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.398978</v>
+        <v>1.874232</v>
       </c>
       <c r="N17">
-        <v>10.196934</v>
+        <v>5.622696</v>
       </c>
       <c r="O17">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="P17">
-        <v>0.2088381995863842</v>
+        <v>0.1032567352080173</v>
       </c>
       <c r="Q17">
-        <v>53.39774157431267</v>
+        <v>22.34127651336</v>
       </c>
       <c r="R17">
-        <v>480.5796741688141</v>
+        <v>201.07148862024</v>
       </c>
       <c r="S17">
-        <v>0.1140029463931313</v>
+        <v>0.05719344646069262</v>
       </c>
       <c r="T17">
-        <v>0.1140029463931313</v>
+        <v>0.05719344646069263</v>
       </c>
     </row>
   </sheetData>
